--- a/stock_predictor_ai/data/company_sentiment_ready/HPE_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/HPE_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2438"/>
+  <dimension ref="A1:B2491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19945,6 +19945,430 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2439">
+      <c r="A2439" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B2439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B2440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B2441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B2442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B2443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B2444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B2446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B2447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B2448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B2450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B2451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B2452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B2454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B2455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B2456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B2457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B2458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B2459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B2460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B2461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B2462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B2463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B2464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B2465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B2466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B2467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B2468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B2469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B2470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B2471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B2472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B2473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B2474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B2475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B2476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B2477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B2478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B2479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B2480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B2481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B2482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B2484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B2485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B2486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B2487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B2488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B2489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B2490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B2491" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/company_sentiment_ready/HPE_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/HPE_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2491"/>
+  <dimension ref="A1:B2492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20369,6 +20369,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2492" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
